--- a/webdownload/files/Zorg2022.xlsx
+++ b/webdownload/files/Zorg2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\Zorg 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\Zorg_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9665BD82-CFFB-4BAC-AC6F-84716EC7BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4796D8C9-3A49-46FF-AEA7-35947291446C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>Prijs</t>
   </si>
@@ -171,9 +171,6 @@
     <t>75%, max. € 250,- p.jr. (m.u.v. niet nakomen afspraak)</t>
   </si>
   <si>
-    <t>(2022) -</t>
-  </si>
-  <si>
     <t>Minimale kosten om goedkoper uit te zijn met 2 t.o.v. 1 (per jaar):</t>
   </si>
   <si>
@@ -253,6 +250,12 @@
   </si>
   <si>
     <t>Vergelijkjezorgverzekering</t>
+  </si>
+  <si>
+    <t>50-65%</t>
+  </si>
+  <si>
+    <t>Vergoeding Niet-Gecontracteerd</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -538,10 +541,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -554,53 +555,70 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -610,31 +628,47 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1013,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -1030,19 +1064,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -1222,576 +1256,605 @@
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>45</v>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>45</v>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>45</v>
+      <c r="C9" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.72</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.75</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>45</v>
+      <c r="H9" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.72</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>45</v>
+      <c r="C10" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.83</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>45</v>
+      <c r="H10" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="J10" s="23">
+        <v>1</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0.83</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>45</v>
+      <c r="C11" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.77</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0.75</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0.77</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.65</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="28">
+        <v>0.65</v>
+      </c>
+      <c r="I12" s="28">
+        <v>0.65</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="40">
+        <v>110.95</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="52"/>
+      <c r="I16" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="40">
+        <v>124.45</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="42">
+        <v>100</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="40">
+        <v>250</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="19">
+        <f>IF(D17&gt;D16,(D17-D16)*12*(100/D18)+0.01,"Het lijkt me sterk dat je goedkoper uit bent met een basis- en aanvullende verzekering dan met alleen een basisverzekering")</f>
+        <v>162.01</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="40">
+        <v>121.9</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="51"/>
+      <c r="I25" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="42">
+        <v>75</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="54"/>
+      <c r="I26" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="40">
+        <v>124.45</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="42">
+        <v>100</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="40">
+        <v>250</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="52"/>
+      <c r="I29" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="41">
-        <v>110.95</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="41">
-        <v>124.45</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="39">
-        <v>100</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="41">
-        <v>250</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="21">
-        <f>IF(D16&gt;D15,(D16-D15)*12*(100/D17)+0.01,"Het lijkt me sterk dat je goedkoper uit bent met een basis- en aanvullende verzekering dan met alleen een basisverzekering")</f>
-        <v>162.01</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="24" t="s">
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="20">
+        <f>IF(D25&lt;D27,IF(D26&lt;D28,(D27-D25)*12*(100/(D28-D26))+0.01,"Je bent nooit goedkoper uit met pakket 2 t.o.v. pakket 1"),"Vul voor verzekeringspakket 1 het goedkope pakket in, en voor verzekeringspakket 2 het duurdere pakket")</f>
+        <v>122.40999999999987</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="52"/>
+      <c r="I31" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="41">
-        <v>121.9</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="39">
-        <v>75</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="41">
-        <v>124.45</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="39">
-        <v>100</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="41">
-        <v>250</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="22">
-        <f>IF(D24&lt;D26,IF(D25&lt;D27,(D26-D24)*12*(100/(D27-D25))+0.01,"Je bent nooit goedkoper uit met pakket 2 t.o.v. pakket 1"),"Vul voor verzekeringspakket 1 het goedkope pakket in, en voor verzekeringspakket 2 het duurdere pakket")</f>
-        <v>122.40999999999987</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p5L/BZmnXTmevwR2GC1DPtWLKWZ2G9H6yYTNyVCoWiSefVEv+x9IJWJs/H2Rbbp7tIDr+PcSsJeKIpR3DgLAvQ==" saltValue="LTx4sG6a0Dylk3JMRe8hgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8QXJOkdl5x7UXEoy4XfCj7RzPiZI4FSV97+avkkDc8vXMkhU0d5cO9CsEtoNe271WLY9bpfPPljo9jJEOPXDtw==" saltValue="6A6CRaqwfPYkmnUTWikAfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="62">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I16:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E20">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThanOrEqual">
-      <formula>$D$18</formula>
+      <formula>$D$19</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
-      <formula>$D$18</formula>
+      <formula>$D$19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
-      <formula>$D$28</formula>
+      <formula>$D$29</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>$D$28</formula>
+      <formula>$D$29</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="whole" showDropDown="1" showErrorMessage="1" errorTitle="Onjuist percentage" error="Vul een geldig vergoedingspercentage in!" promptTitle="Percentage vergoeding" prompt="75%, 80% of 100%" sqref="D25 D27 D17" xr:uid="{9F6D9263-6D2E-4B4D-9D06-FC76553E1659}">
+    <dataValidation type="whole" showDropDown="1" showErrorMessage="1" errorTitle="Onjuist percentage" error="Vul een geldig vergoedingspercentage in!" promptTitle="Percentage vergoeding" prompt="75%, 80% of 100%" sqref="D26 D28 D18" xr:uid="{9F6D9263-6D2E-4B4D-9D06-FC76553E1659}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Geen bedrag" error="Vul een geldig bedrag in!" sqref="D27 D25" xr:uid="{B7247440-17F7-4F9D-B09A-D7207950826B}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Geen bedrag" error="Vul een geldig bedrag in!" sqref="D28 D26" xr:uid="{B7247440-17F7-4F9D-B09A-D7207950826B}">
       <formula1>0.01</formula1>
       <formula2>9999.99</formula2>
     </dataValidation>
-    <dataValidation type="custom" showErrorMessage="1" errorTitle="Te laag bedrag" error="Het bedrag voor pakket 2 kan niet lager zijn dan het bedrag voor pakket 1!" sqref="D26" xr:uid="{2DA7407E-9AF9-4442-BBC9-1E6CEFB61254}">
-      <formula1>AND(ISNUMBER(D26), D26&gt;D24)</formula1>
+    <dataValidation type="custom" showErrorMessage="1" errorTitle="Te laag bedrag" error="Het bedrag voor pakket 2 kan niet lager zijn dan het bedrag voor pakket 1!" sqref="D27" xr:uid="{2DA7407E-9AF9-4442-BBC9-1E6CEFB61254}">
+      <formula1>AND(ISNUMBER(D27), D27&gt;D25)</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Geen bedrag" error="Vul een geldig bedrag in!" sqref="D15 D18 D28 D24" xr:uid="{A9F72C05-3079-40C1-BE39-7BC980F484E4}">
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Geen bedrag" error="Vul een geldig bedrag in!" sqref="D16 D19 D29 D25" xr:uid="{A9F72C05-3079-40C1-BE39-7BC980F484E4}">
       <formula1>0.01</formula1>
       <formula2>9999.99</formula2>
     </dataValidation>
-    <dataValidation type="custom" showErrorMessage="1" errorTitle="Te laag bedrag" error="Het bedrag voor de basis- en aanvullende verzekering samen moet hoger zijn dan de prijs voor alleen de basisverzekering!" sqref="D16" xr:uid="{415E3336-6703-4A1B-9F63-01B95767B19F}">
-      <formula1>AND(ISNUMBER(D16), D16&gt;D15)</formula1>
+    <dataValidation type="custom" showErrorMessage="1" errorTitle="Te laag bedrag" error="Het bedrag voor de basis- en aanvullende verzekering samen moet hoger zijn dan de prijs voor alleen de basisverzekering!" sqref="D17" xr:uid="{415E3336-6703-4A1B-9F63-01B95767B19F}">
+      <formula1>AND(ISNUMBER(D17), D17&gt;D16)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G15:G16" r:id="rId1" display="Independer" xr:uid="{5F740389-A0C1-421D-93DE-8B4F2C68708F}"/>
-    <hyperlink ref="G17" r:id="rId2" xr:uid="{93FF412E-8619-4FB0-8319-36117DF9A4D8}"/>
-    <hyperlink ref="G18" r:id="rId3" xr:uid="{0DDBC892-AD8A-495D-9643-93D9147040F2}"/>
-    <hyperlink ref="G19" r:id="rId4" xr:uid="{9A6E1D54-12D7-4357-A7AA-DC6D90EACFB5}"/>
-    <hyperlink ref="G20" r:id="rId5" xr:uid="{4602F915-224A-4DAC-90EC-A009CCEA1CE2}"/>
-    <hyperlink ref="G21" r:id="rId6" xr:uid="{1586D03C-1936-4685-8515-5E7EB3DB00D5}"/>
-    <hyperlink ref="G22" r:id="rId7" xr:uid="{BC042CBA-3C61-45CE-B019-028B5A9520A0}"/>
-    <hyperlink ref="G23" r:id="rId8" xr:uid="{F750A2D5-D909-406D-87FA-E9014905D9D4}"/>
-    <hyperlink ref="G24" r:id="rId9" xr:uid="{7F7677E3-974D-48EF-84DD-88AC85DE8244}"/>
-    <hyperlink ref="G25" r:id="rId10" xr:uid="{9BB8C018-C694-4250-84C8-F511692D898C}"/>
-    <hyperlink ref="G26" r:id="rId11" xr:uid="{F24646F4-5945-4EC2-BD04-E0FF1B5A459E}"/>
-    <hyperlink ref="G27" r:id="rId12" xr:uid="{5501A842-2BDF-4957-8E87-68CF5FA3F9B2}"/>
-    <hyperlink ref="G28" r:id="rId13" xr:uid="{23CCD799-2C18-4FEF-AC1C-1C9CB8C9D47B}"/>
-    <hyperlink ref="G29" r:id="rId14" xr:uid="{0410F36E-F768-4E9B-A9F6-67958E2270DA}"/>
-    <hyperlink ref="G30" r:id="rId15" xr:uid="{4E28615D-29A0-4A9C-9E1E-A96AAD4FAFAD}"/>
+    <hyperlink ref="G16:G17" r:id="rId1" display="Independer" xr:uid="{5F740389-A0C1-421D-93DE-8B4F2C68708F}"/>
+    <hyperlink ref="G18" r:id="rId2" xr:uid="{93FF412E-8619-4FB0-8319-36117DF9A4D8}"/>
+    <hyperlink ref="G19" r:id="rId3" xr:uid="{0DDBC892-AD8A-495D-9643-93D9147040F2}"/>
+    <hyperlink ref="G20" r:id="rId4" xr:uid="{9A6E1D54-12D7-4357-A7AA-DC6D90EACFB5}"/>
+    <hyperlink ref="G21" r:id="rId5" xr:uid="{4602F915-224A-4DAC-90EC-A009CCEA1CE2}"/>
+    <hyperlink ref="G22" r:id="rId6" xr:uid="{1586D03C-1936-4685-8515-5E7EB3DB00D5}"/>
+    <hyperlink ref="G23" r:id="rId7" xr:uid="{BC042CBA-3C61-45CE-B019-028B5A9520A0}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{F750A2D5-D909-406D-87FA-E9014905D9D4}"/>
+    <hyperlink ref="G25" r:id="rId9" xr:uid="{7F7677E3-974D-48EF-84DD-88AC85DE8244}"/>
+    <hyperlink ref="G26" r:id="rId10" xr:uid="{9BB8C018-C694-4250-84C8-F511692D898C}"/>
+    <hyperlink ref="G27" r:id="rId11" xr:uid="{F24646F4-5945-4EC2-BD04-E0FF1B5A459E}"/>
+    <hyperlink ref="G28" r:id="rId12" xr:uid="{5501A842-2BDF-4957-8E87-68CF5FA3F9B2}"/>
+    <hyperlink ref="G29" r:id="rId13" xr:uid="{23CCD799-2C18-4FEF-AC1C-1C9CB8C9D47B}"/>
+    <hyperlink ref="G30" r:id="rId14" xr:uid="{0410F36E-F768-4E9B-A9F6-67958E2270DA}"/>
+    <hyperlink ref="G31" r:id="rId15" xr:uid="{4E28615D-29A0-4A9C-9E1E-A96AAD4FAFAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
